--- a/classfiers/bottleneck/knn/nearmiss/bottleneck-knn-nearmiss-results.xlsx
+++ b/classfiers/bottleneck/knn/nearmiss/bottleneck-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.5</v>
-      </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.9766081871345029</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9064327485380117</v>
+        <v>0.9912280701754387</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.9473684210526315</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.972972972972973</v>
+        <v>0.8444444444444443</v>
       </c>
       <c r="E4" t="n">
-        <v>0.97953216374269</v>
+        <v>0.9181286549707602</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9678362573099415</v>
+        <v>0.9853801169590644</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7368421052631577</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E6" t="n">
-        <v>0.79320987654321</v>
+        <v>0.7623456790123457</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.9097902097902099</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7239766081871345</v>
+        <v>0.8128654970760234</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7975185712027816</v>
+        <v>0.8346031746031745</v>
       </c>
       <c r="E7" t="n">
-        <v>0.912735542560104</v>
+        <v>0.9267381416504223</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/knn/nearmiss/bottleneck-knn-nearmiss-results.xlsx
+++ b/classfiers/bottleneck/knn/nearmiss/bottleneck-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9766081871345029</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9912280701754387</v>
+        <v>0.6777777777777777</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7307692307692307</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8444444444444443</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9181286549707602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.9473684210526316</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9853801169590644</v>
+        <v>0.9666666666666668</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7623456790123457</v>
+        <v>0.9074074074074074</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9097902097902099</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8128654970760234</v>
+        <v>0.6688888888888889</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8346031746031745</v>
+        <v>0.7725506072874494</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9267381416504223</v>
+        <v>0.8903703703703704</v>
       </c>
     </row>
   </sheetData>
